--- a/data/pca/factorExposure/factorExposure_2014-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.004644004861315534</v>
+        <v>0.02077071791524348</v>
       </c>
       <c r="C2">
-        <v>-0.1518546921606808</v>
+        <v>0.07026834774601168</v>
       </c>
       <c r="D2">
-        <v>-0.04466155347712852</v>
+        <v>0.02214623787981031</v>
       </c>
       <c r="E2">
-        <v>-0.2375620938227683</v>
+        <v>-0.03713688949974964</v>
       </c>
       <c r="F2">
-        <v>-0.06826762883905797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0328206460308745</v>
+      </c>
+      <c r="G2">
+        <v>-0.146442800932365</v>
+      </c>
+      <c r="H2">
+        <v>0.03032349647365418</v>
+      </c>
+      <c r="I2">
+        <v>-0.03927667305626405</v>
+      </c>
+      <c r="J2">
+        <v>0.1324505547098772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01168144029454632</v>
+        <v>0.0248128834583752</v>
       </c>
       <c r="C4">
-        <v>-0.1758344965763385</v>
+        <v>0.1378819221450169</v>
       </c>
       <c r="D4">
-        <v>-0.05518770304645158</v>
+        <v>0.04834886308526794</v>
       </c>
       <c r="E4">
-        <v>-0.02909432020065622</v>
+        <v>-0.05568445969028608</v>
       </c>
       <c r="F4">
-        <v>0.07468461587011581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06254296908860661</v>
+      </c>
+      <c r="G4">
+        <v>-0.02030018602849251</v>
+      </c>
+      <c r="H4">
+        <v>-0.01362296807366828</v>
+      </c>
+      <c r="I4">
+        <v>0.0201945763766612</v>
+      </c>
+      <c r="J4">
+        <v>0.09912137848987793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.0355572741546372</v>
+        <v>0.04417795781394088</v>
       </c>
       <c r="C6">
-        <v>-0.07399215065653653</v>
+        <v>0.08623132191727539</v>
       </c>
       <c r="D6">
-        <v>-0.07873471673976548</v>
+        <v>0.02511935136000794</v>
       </c>
       <c r="E6">
-        <v>-0.02476415577902347</v>
+        <v>-0.009743027612835322</v>
       </c>
       <c r="F6">
-        <v>-0.02445113277781926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.007166344864088062</v>
+      </c>
+      <c r="G6">
+        <v>-0.04738128731077149</v>
+      </c>
+      <c r="H6">
+        <v>-0.03589003194462338</v>
+      </c>
+      <c r="I6">
+        <v>0.0749369151719456</v>
+      </c>
+      <c r="J6">
+        <v>0.0008319204272754178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.01842777780756251</v>
+        <v>0.02200687223294437</v>
       </c>
       <c r="C7">
-        <v>-0.07944524190665075</v>
+        <v>0.07304812437956665</v>
       </c>
       <c r="D7">
-        <v>-0.04856220480143633</v>
+        <v>0.02862514086242193</v>
       </c>
       <c r="E7">
-        <v>0.004261353811080336</v>
+        <v>-0.01234910443090889</v>
       </c>
       <c r="F7">
-        <v>-0.02169685969754908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.006564909770712155</v>
+      </c>
+      <c r="G7">
+        <v>0.01567505149589137</v>
+      </c>
+      <c r="H7">
+        <v>-0.02084262428435284</v>
+      </c>
+      <c r="I7">
+        <v>0.01439425787752847</v>
+      </c>
+      <c r="J7">
+        <v>0.1070661619551993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0137811996484181</v>
+        <v>0.00476985200220992</v>
       </c>
       <c r="C8">
-        <v>-0.07191093434077125</v>
+        <v>0.06241654414433769</v>
       </c>
       <c r="D8">
-        <v>-0.02395511226300355</v>
+        <v>0.04878876656573016</v>
       </c>
       <c r="E8">
-        <v>-0.08221538055592431</v>
+        <v>0.0001296652785988585</v>
       </c>
       <c r="F8">
-        <v>0.01161003193318091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0428303492233279</v>
+      </c>
+      <c r="G8">
+        <v>-0.05802685116921226</v>
+      </c>
+      <c r="H8">
+        <v>-0.04897545059527875</v>
+      </c>
+      <c r="I8">
+        <v>0.01728142367520694</v>
+      </c>
+      <c r="J8">
+        <v>0.03472625469564795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.004619106455372514</v>
+        <v>0.01532324103717477</v>
       </c>
       <c r="C9">
-        <v>-0.1216687642089477</v>
+        <v>0.09539157013884322</v>
       </c>
       <c r="D9">
-        <v>-0.05987112114691724</v>
+        <v>0.02491476017901126</v>
       </c>
       <c r="E9">
-        <v>0.003064848346944521</v>
+        <v>-0.04919140482208762</v>
       </c>
       <c r="F9">
-        <v>0.01986879291137483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02158180931608664</v>
+      </c>
+      <c r="G9">
+        <v>-0.0107073395329365</v>
+      </c>
+      <c r="H9">
+        <v>-0.02321819587582752</v>
+      </c>
+      <c r="I9">
+        <v>0.008085638636182224</v>
+      </c>
+      <c r="J9">
+        <v>0.1082378684947455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2604659181058418</v>
+        <v>0.2406493831319453</v>
       </c>
       <c r="C10">
-        <v>0.07950387141700688</v>
+        <v>-0.10352979439119</v>
       </c>
       <c r="D10">
-        <v>0.0407730548432416</v>
+        <v>0.006444445031859291</v>
       </c>
       <c r="E10">
-        <v>0.01674186562888012</v>
+        <v>0.0401224664253025</v>
       </c>
       <c r="F10">
-        <v>0.05406072207049917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01454258968965064</v>
+      </c>
+      <c r="G10">
+        <v>-0.02766788026871628</v>
+      </c>
+      <c r="H10">
+        <v>-0.03824234023566673</v>
+      </c>
+      <c r="I10">
+        <v>0.05342292512120052</v>
+      </c>
+      <c r="J10">
+        <v>0.01597561882584821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.008006310931075419</v>
+        <v>0.02013878387344007</v>
       </c>
       <c r="C11">
-        <v>-0.06890504479078377</v>
+        <v>0.07985713500113634</v>
       </c>
       <c r="D11">
-        <v>-0.03982520886476746</v>
+        <v>0.0331854283051791</v>
       </c>
       <c r="E11">
-        <v>0.03547440773276788</v>
+        <v>-0.0309822339545293</v>
       </c>
       <c r="F11">
-        <v>0.01072094014476735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003337534430703337</v>
+      </c>
+      <c r="G11">
+        <v>0.01311166707362865</v>
+      </c>
+      <c r="H11">
+        <v>-0.01499902027742909</v>
+      </c>
+      <c r="I11">
+        <v>-0.005220365430083722</v>
+      </c>
+      <c r="J11">
+        <v>0.02760570455957536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.006670064713986915</v>
+        <v>0.01888215601345413</v>
       </c>
       <c r="C12">
-        <v>-0.04627930711081416</v>
+        <v>0.05156233298080695</v>
       </c>
       <c r="D12">
-        <v>-0.0419919926404033</v>
+        <v>0.01836624433078425</v>
       </c>
       <c r="E12">
-        <v>0.0318249787948684</v>
+        <v>-0.02367471830279628</v>
       </c>
       <c r="F12">
-        <v>-0.02078449840449475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0178800123195721</v>
+      </c>
+      <c r="G12">
+        <v>-0.003962462711191966</v>
+      </c>
+      <c r="H12">
+        <v>-0.01644531465038801</v>
+      </c>
+      <c r="I12">
+        <v>0.01950046023848406</v>
+      </c>
+      <c r="J12">
+        <v>0.02514125401130071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.003869436181014328</v>
+        <v>0.009544209500174419</v>
       </c>
       <c r="C13">
-        <v>-0.1162192004170328</v>
+        <v>0.1085408517038313</v>
       </c>
       <c r="D13">
-        <v>-0.06024450595878363</v>
+        <v>0.03737509993065629</v>
       </c>
       <c r="E13">
-        <v>-0.07389751722806522</v>
+        <v>-0.02663628386949356</v>
       </c>
       <c r="F13">
-        <v>-0.1008080804256291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01403105509758369</v>
+      </c>
+      <c r="G13">
+        <v>-0.1557371379939529</v>
+      </c>
+      <c r="H13">
+        <v>0.07556302925529028</v>
+      </c>
+      <c r="I13">
+        <v>0.06619833944927384</v>
+      </c>
+      <c r="J13">
+        <v>0.2277708444334095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0083172268073299</v>
+        <v>0.02353003849222535</v>
       </c>
       <c r="C14">
-        <v>-0.0835382569614125</v>
+        <v>0.07441391017841682</v>
       </c>
       <c r="D14">
-        <v>-0.0494670310737847</v>
+        <v>0.04013097672218741</v>
       </c>
       <c r="E14">
-        <v>0.004834898660389584</v>
+        <v>-0.01549144323387009</v>
       </c>
       <c r="F14">
-        <v>-0.04449160804600127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02958146389385445</v>
+      </c>
+      <c r="G14">
+        <v>-0.02594711517988126</v>
+      </c>
+      <c r="H14">
+        <v>-0.05922844904806977</v>
+      </c>
+      <c r="I14">
+        <v>0.09283716945636172</v>
+      </c>
+      <c r="J14">
+        <v>0.181762825369479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.004183780597108855</v>
+        <v>0.004917567542277029</v>
       </c>
       <c r="C15">
-        <v>-0.07904362145304415</v>
+        <v>0.06975563802998384</v>
       </c>
       <c r="D15">
-        <v>-0.03142615124240725</v>
+        <v>0.02353764848347294</v>
       </c>
       <c r="E15">
-        <v>-0.01422086919349108</v>
+        <v>-0.03037607409677379</v>
       </c>
       <c r="F15">
-        <v>0.006750336219589504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03487437435702975</v>
+      </c>
+      <c r="G15">
+        <v>-0.004767236067234298</v>
+      </c>
+      <c r="H15">
+        <v>-0.03518838726173843</v>
+      </c>
+      <c r="I15">
+        <v>0.033007366684533</v>
+      </c>
+      <c r="J15">
+        <v>0.07252935852098746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.008274416631771149</v>
+        <v>0.01832750519413746</v>
       </c>
       <c r="C16">
-        <v>-0.05489624125500762</v>
+        <v>0.05961374605449906</v>
       </c>
       <c r="D16">
-        <v>-0.03081986864030872</v>
+        <v>0.01904720455490982</v>
       </c>
       <c r="E16">
-        <v>0.02445884074229546</v>
+        <v>-0.0233106828108357</v>
       </c>
       <c r="F16">
-        <v>-0.001897477949159052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.002209131924388044</v>
+      </c>
+      <c r="G16">
+        <v>0.007441181554365539</v>
+      </c>
+      <c r="H16">
+        <v>-0.008455884861367753</v>
+      </c>
+      <c r="I16">
+        <v>0.003524062217603529</v>
+      </c>
+      <c r="J16">
+        <v>0.02182107093841796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.01127778361649219</v>
+        <v>0.01919493417770672</v>
       </c>
       <c r="C20">
-        <v>-0.09450837802917422</v>
+        <v>0.08672514985113385</v>
       </c>
       <c r="D20">
-        <v>-0.04792451065550482</v>
+        <v>0.02436897945105158</v>
       </c>
       <c r="E20">
-        <v>0.05771818286043835</v>
+        <v>-0.01265913834618546</v>
       </c>
       <c r="F20">
-        <v>-0.00780506007179672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01146865693969116</v>
+      </c>
+      <c r="G20">
+        <v>0.0225149407380848</v>
+      </c>
+      <c r="H20">
+        <v>-0.04368726601908739</v>
+      </c>
+      <c r="I20">
+        <v>0.0286614141789402</v>
+      </c>
+      <c r="J20">
+        <v>0.06033080085862702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.008249595000033697</v>
+        <v>0.014600851094406</v>
       </c>
       <c r="C21">
-        <v>-0.07785521802990122</v>
+        <v>0.06884907500269125</v>
       </c>
       <c r="D21">
-        <v>-0.003913039888867638</v>
+        <v>0.01940229591057751</v>
       </c>
       <c r="E21">
-        <v>-0.01732976661754577</v>
+        <v>0.00539490906538929</v>
       </c>
       <c r="F21">
-        <v>-0.08703711191449552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.05405395827299206</v>
+      </c>
+      <c r="G21">
+        <v>-0.073202891849578</v>
+      </c>
+      <c r="H21">
+        <v>-0.04875122403231161</v>
+      </c>
+      <c r="I21">
+        <v>0.0223004898701884</v>
+      </c>
+      <c r="J21">
+        <v>0.1291958350881851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.003711524229688252</v>
+        <v>0.01038819148550849</v>
       </c>
       <c r="C22">
-        <v>-0.2651443832220998</v>
+        <v>0.1642397080154838</v>
       </c>
       <c r="D22">
-        <v>0.09405954589560293</v>
+        <v>0.0009050596870013667</v>
       </c>
       <c r="E22">
-        <v>-0.3578344502315891</v>
+        <v>-0.04515953053637678</v>
       </c>
       <c r="F22">
-        <v>0.2091548940841046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3943189791819744</v>
+      </c>
+      <c r="G22">
+        <v>-0.3270180971825395</v>
+      </c>
+      <c r="H22">
+        <v>0.2684053537021531</v>
+      </c>
+      <c r="I22">
+        <v>-0.04974188163036018</v>
+      </c>
+      <c r="J22">
+        <v>-0.2446152201423849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.002671691117168752</v>
+        <v>0.01545491043023122</v>
       </c>
       <c r="C23">
-        <v>-0.2684823339949071</v>
+        <v>0.1665039016760634</v>
       </c>
       <c r="D23">
-        <v>0.09887835206014207</v>
+        <v>-0.0006706442927223631</v>
       </c>
       <c r="E23">
-        <v>-0.3515295681375114</v>
+        <v>-0.04845642131629675</v>
       </c>
       <c r="F23">
-        <v>0.207477683105972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3827110881710726</v>
+      </c>
+      <c r="G23">
+        <v>-0.319060342913796</v>
+      </c>
+      <c r="H23">
+        <v>0.2551389947491466</v>
+      </c>
+      <c r="I23">
+        <v>-0.04905318818726612</v>
+      </c>
+      <c r="J23">
+        <v>-0.225675980583705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.005485693346243182</v>
+        <v>0.01890945024030517</v>
       </c>
       <c r="C24">
-        <v>-0.06078406499265988</v>
+        <v>0.06328187866836892</v>
       </c>
       <c r="D24">
-        <v>-0.0529677487432184</v>
+        <v>0.03148226942966557</v>
       </c>
       <c r="E24">
-        <v>0.02775798830065162</v>
+        <v>-0.03262592039131132</v>
       </c>
       <c r="F24">
-        <v>0.0006075930417925836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.00258179621019632</v>
+      </c>
+      <c r="G24">
+        <v>0.009123600577254689</v>
+      </c>
+      <c r="H24">
+        <v>-0.01404353571269549</v>
+      </c>
+      <c r="I24">
+        <v>0.0111532159615251</v>
+      </c>
+      <c r="J24">
+        <v>0.03977679802076419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.006645537551952604</v>
+        <v>0.02429255599290665</v>
       </c>
       <c r="C25">
-        <v>-0.06509018979746836</v>
+        <v>0.06703269564421056</v>
       </c>
       <c r="D25">
-        <v>-0.02808860000205023</v>
+        <v>0.02384685998258909</v>
       </c>
       <c r="E25">
-        <v>0.03137290837479763</v>
+        <v>-0.03247517355657902</v>
       </c>
       <c r="F25">
-        <v>-0.003797278818296472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.001738381443565378</v>
+      </c>
+      <c r="G25">
+        <v>0.008736675142161391</v>
+      </c>
+      <c r="H25">
+        <v>-0.01312445538382918</v>
+      </c>
+      <c r="I25">
+        <v>0.002460384471868444</v>
+      </c>
+      <c r="J25">
+        <v>0.03682200771875759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.003347876262511492</v>
+        <v>0.02207575965822003</v>
       </c>
       <c r="C26">
-        <v>-0.04524219774479637</v>
+        <v>0.04433951998676858</v>
       </c>
       <c r="D26">
-        <v>-0.08116255723841655</v>
+        <v>0.03796239976278806</v>
       </c>
       <c r="E26">
-        <v>0.02271449976374857</v>
+        <v>-0.06058556618802362</v>
       </c>
       <c r="F26">
-        <v>-0.03670923614816148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008438045324924842</v>
+      </c>
+      <c r="G26">
+        <v>0.008878267856658052</v>
+      </c>
+      <c r="H26">
+        <v>-0.03920762645462311</v>
+      </c>
+      <c r="I26">
+        <v>-0.009357292349287385</v>
+      </c>
+      <c r="J26">
+        <v>0.1176344384194348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3419724274159824</v>
+        <v>0.3040162103967164</v>
       </c>
       <c r="C28">
-        <v>0.09793430160925523</v>
+        <v>-0.1295473476887269</v>
       </c>
       <c r="D28">
-        <v>0.03921121346738977</v>
+        <v>-0.02376912844433438</v>
       </c>
       <c r="E28">
-        <v>-0.006056593417581484</v>
+        <v>0.02918321200737221</v>
       </c>
       <c r="F28">
-        <v>0.03694386381165213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.02506153956474602</v>
+      </c>
+      <c r="G28">
+        <v>-0.0513535699184474</v>
+      </c>
+      <c r="H28">
+        <v>-0.03252325628474238</v>
+      </c>
+      <c r="I28">
+        <v>-0.08280765772234375</v>
+      </c>
+      <c r="J28">
+        <v>0.02960790635061856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.00234315581439427</v>
+        <v>0.01975738138528574</v>
       </c>
       <c r="C29">
-        <v>-0.077031549156621</v>
+        <v>0.08003651871669677</v>
       </c>
       <c r="D29">
-        <v>-0.05550534775069775</v>
+        <v>0.03481065166189592</v>
       </c>
       <c r="E29">
-        <v>0.02168547227166897</v>
+        <v>-0.03368102976844319</v>
       </c>
       <c r="F29">
-        <v>-0.04661702645445718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03829757555145828</v>
+      </c>
+      <c r="G29">
+        <v>-0.0225496051903505</v>
+      </c>
+      <c r="H29">
+        <v>-0.0674181579507655</v>
+      </c>
+      <c r="I29">
+        <v>0.145799941198483</v>
+      </c>
+      <c r="J29">
+        <v>0.2529276685595556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.02251520253606276</v>
+        <v>0.04212871833676703</v>
       </c>
       <c r="C30">
-        <v>-0.1654698866224053</v>
+        <v>0.1465799209006528</v>
       </c>
       <c r="D30">
-        <v>-0.07253024139442467</v>
+        <v>0.04590676591962913</v>
       </c>
       <c r="E30">
-        <v>-0.0348886198833927</v>
+        <v>-0.0367861294419501</v>
       </c>
       <c r="F30">
-        <v>0.01739429830644069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04003491168177151</v>
+      </c>
+      <c r="G30">
+        <v>-0.01953649380388558</v>
+      </c>
+      <c r="H30">
+        <v>-0.0307160250088711</v>
+      </c>
+      <c r="I30">
+        <v>0.03724683475588572</v>
+      </c>
+      <c r="J30">
+        <v>0.03780677254020385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.002902775683598489</v>
+        <v>0.01724256303221371</v>
       </c>
       <c r="C31">
-        <v>-0.05407620723888729</v>
+        <v>0.07393397096958985</v>
       </c>
       <c r="D31">
-        <v>-0.02879402398410814</v>
+        <v>0.03371845455442429</v>
       </c>
       <c r="E31">
-        <v>0.01762144126769838</v>
+        <v>-0.0219853230695256</v>
       </c>
       <c r="F31">
-        <v>0.003035642501897687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0111477615163227</v>
+      </c>
+      <c r="G31">
+        <v>-0.004671543313653315</v>
+      </c>
+      <c r="H31">
+        <v>-0.02830619125492067</v>
+      </c>
+      <c r="I31">
+        <v>-0.01956385234383397</v>
+      </c>
+      <c r="J31">
+        <v>0.0331592358398927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.004286603232978694</v>
+        <v>0.02149464221873047</v>
       </c>
       <c r="C32">
-        <v>-0.08208615242092374</v>
+        <v>0.0530989495753734</v>
       </c>
       <c r="D32">
-        <v>-0.01449680649299972</v>
+        <v>0.02994523212906268</v>
       </c>
       <c r="E32">
-        <v>-0.1519604651599071</v>
+        <v>-0.001058334112805209</v>
       </c>
       <c r="F32">
-        <v>-0.03334427117394567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01197115276218537</v>
+      </c>
+      <c r="G32">
+        <v>-0.09537729555330718</v>
+      </c>
+      <c r="H32">
+        <v>0.04067274472948154</v>
+      </c>
+      <c r="I32">
+        <v>0.05652835015203092</v>
+      </c>
+      <c r="J32">
+        <v>0.1779991818414573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.008001458273351426</v>
+        <v>0.01995412899014068</v>
       </c>
       <c r="C33">
-        <v>-0.09278069703874446</v>
+        <v>0.09992368948547239</v>
       </c>
       <c r="D33">
-        <v>-0.0644476383309473</v>
+        <v>0.04122907639629374</v>
       </c>
       <c r="E33">
-        <v>0.02349744401258248</v>
+        <v>-0.03123494171997649</v>
       </c>
       <c r="F33">
-        <v>-0.008015829006993115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02044253653024806</v>
+      </c>
+      <c r="G33">
+        <v>-0.007908371938007967</v>
+      </c>
+      <c r="H33">
+        <v>-0.01248273917214723</v>
+      </c>
+      <c r="I33">
+        <v>0.0257822997714461</v>
+      </c>
+      <c r="J33">
+        <v>0.05897008196825756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.005168716230794642</v>
+        <v>0.01947603357864373</v>
       </c>
       <c r="C34">
-        <v>-0.04794681534388806</v>
+        <v>0.04966114276494425</v>
       </c>
       <c r="D34">
-        <v>-0.0268153143120065</v>
+        <v>0.01547731054581187</v>
       </c>
       <c r="E34">
-        <v>0.01187163538580359</v>
+        <v>-0.02053766015971553</v>
       </c>
       <c r="F34">
-        <v>-0.01487646475730082</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01064882571771173</v>
+      </c>
+      <c r="G34">
+        <v>0.006869153487681887</v>
+      </c>
+      <c r="H34">
+        <v>-0.01615657600830695</v>
+      </c>
+      <c r="I34">
+        <v>0.01997210812512297</v>
+      </c>
+      <c r="J34">
+        <v>-0.003643018339668513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.0003067668076545019</v>
+        <v>0.01267678150609556</v>
       </c>
       <c r="C35">
-        <v>-0.03130245305371609</v>
+        <v>0.04918400647454444</v>
       </c>
       <c r="D35">
-        <v>-0.01814572211247789</v>
+        <v>0.02128162003206453</v>
       </c>
       <c r="E35">
-        <v>0.0076766976356141</v>
+        <v>-0.01248419847680496</v>
       </c>
       <c r="F35">
-        <v>-0.01565786014222016</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.003807838707586175</v>
+      </c>
+      <c r="G35">
+        <v>-0.009864190434457562</v>
+      </c>
+      <c r="H35">
+        <v>-0.05963666959770234</v>
+      </c>
+      <c r="I35">
+        <v>0.05784681397754415</v>
+      </c>
+      <c r="J35">
+        <v>0.1265613872248151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.001541633470262429</v>
+        <v>0.014314882767413</v>
       </c>
       <c r="C36">
-        <v>-0.0454908772444745</v>
+        <v>0.04297504831402458</v>
       </c>
       <c r="D36">
-        <v>-0.0489060895133145</v>
+        <v>0.03062729960323046</v>
       </c>
       <c r="E36">
-        <v>0.01571255408155426</v>
+        <v>-0.02346464080180972</v>
       </c>
       <c r="F36">
-        <v>-0.01270682778449498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01575092081314023</v>
+      </c>
+      <c r="G36">
+        <v>-0.009783418309966921</v>
+      </c>
+      <c r="H36">
+        <v>-0.02524572778540864</v>
+      </c>
+      <c r="I36">
+        <v>-0.002882283862363448</v>
+      </c>
+      <c r="J36">
+        <v>0.09015103898778627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.02522475012546448</v>
+        <v>0.01324362491187797</v>
       </c>
       <c r="C38">
-        <v>-0.04476842591530767</v>
+        <v>0.05986195625161071</v>
       </c>
       <c r="D38">
-        <v>-0.04559104893267233</v>
+        <v>0.04410263747129987</v>
       </c>
       <c r="E38">
-        <v>0.03176852049555923</v>
+        <v>0.001637843567611477</v>
       </c>
       <c r="F38">
-        <v>-0.009233319531727733</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03687898530119415</v>
+      </c>
+      <c r="G38">
+        <v>0.006625430587922398</v>
+      </c>
+      <c r="H38">
+        <v>-0.02167979273084808</v>
+      </c>
+      <c r="I38">
+        <v>0.03200480592415473</v>
+      </c>
+      <c r="J38">
+        <v>0.07707309332826642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.005144913754638152</v>
+        <v>0.03010162795448752</v>
       </c>
       <c r="C39">
-        <v>-0.1224152905700869</v>
+        <v>0.1320678478568502</v>
       </c>
       <c r="D39">
-        <v>-0.06364538719416846</v>
+        <v>0.05347066327698215</v>
       </c>
       <c r="E39">
-        <v>0.02366742462904617</v>
+        <v>-0.0236513211889764</v>
       </c>
       <c r="F39">
-        <v>-0.02894611515082934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01986805707460703</v>
+      </c>
+      <c r="G39">
+        <v>0.01179692890014086</v>
+      </c>
+      <c r="H39">
+        <v>-0.03053849191909906</v>
+      </c>
+      <c r="I39">
+        <v>0.05094401835406982</v>
+      </c>
+      <c r="J39">
+        <v>0.02694876875297681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.01554915685723116</v>
+        <v>0.02390239372054707</v>
       </c>
       <c r="C40">
-        <v>-0.05077348924778183</v>
+        <v>0.07722362737994316</v>
       </c>
       <c r="D40">
-        <v>-0.02420073946833765</v>
+        <v>0.02951626688322521</v>
       </c>
       <c r="E40">
-        <v>-0.0243595710227633</v>
+        <v>-0.03242352705373119</v>
       </c>
       <c r="F40">
-        <v>0.01340125395769314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.00463978687360083</v>
+      </c>
+      <c r="G40">
+        <v>-0.02496072237350958</v>
+      </c>
+      <c r="H40">
+        <v>0.01105485478389755</v>
+      </c>
+      <c r="I40">
+        <v>0.1033211278480301</v>
+      </c>
+      <c r="J40">
+        <v>0.06951973071881958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.01268159227555234</v>
+        <v>0.02327316676597208</v>
       </c>
       <c r="C41">
-        <v>-0.02232125848277002</v>
+        <v>0.04409843362308975</v>
       </c>
       <c r="D41">
-        <v>0.0001215379447819056</v>
+        <v>0.009600307981094678</v>
       </c>
       <c r="E41">
-        <v>0.01658013184512662</v>
+        <v>-0.01263060902766024</v>
       </c>
       <c r="F41">
-        <v>0.005831222695794425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006571266393161368</v>
+      </c>
+      <c r="G41">
+        <v>0.01236757164643583</v>
+      </c>
+      <c r="H41">
+        <v>-0.004992214528572366</v>
+      </c>
+      <c r="I41">
+        <v>-0.002571652674480901</v>
+      </c>
+      <c r="J41">
+        <v>0.02834953730163585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.0070598375767309</v>
+        <v>0.02165941110257451</v>
       </c>
       <c r="C43">
-        <v>-0.02383184337232549</v>
+        <v>0.04552864695302893</v>
       </c>
       <c r="D43">
-        <v>-0.02420940327805026</v>
+        <v>0.02337713463722089</v>
       </c>
       <c r="E43">
-        <v>0.00999130197633203</v>
+        <v>-0.01568559216959474</v>
       </c>
       <c r="F43">
-        <v>0.007853899943965277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005022885169663214</v>
+      </c>
+      <c r="G43">
+        <v>0.01331916051271085</v>
+      </c>
+      <c r="H43">
+        <v>-0.01192606866980134</v>
+      </c>
+      <c r="I43">
+        <v>0.003355037450839663</v>
+      </c>
+      <c r="J43">
+        <v>0.03979503433568284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.009564215040511782</v>
+        <v>0.02122772336802623</v>
       </c>
       <c r="C44">
-        <v>-0.1094812581320324</v>
+        <v>0.09999666455085136</v>
       </c>
       <c r="D44">
-        <v>-0.05321861902640931</v>
+        <v>0.05469092244577097</v>
       </c>
       <c r="E44">
-        <v>-0.03349201275854015</v>
+        <v>-0.03464515895753474</v>
       </c>
       <c r="F44">
-        <v>0.01507613347808313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05887511539158689</v>
+      </c>
+      <c r="G44">
+        <v>-0.02496234008348385</v>
+      </c>
+      <c r="H44">
+        <v>0.00533919326955175</v>
+      </c>
+      <c r="I44">
+        <v>0.05034185455256802</v>
+      </c>
+      <c r="J44">
+        <v>0.05458071190344518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.005872905712852332</v>
+        <v>0.008452977604258604</v>
       </c>
       <c r="C46">
-        <v>-0.07061612765914149</v>
+        <v>0.07172801931809676</v>
       </c>
       <c r="D46">
-        <v>-0.07029024392378723</v>
+        <v>0.02325463972006973</v>
       </c>
       <c r="E46">
-        <v>0.006349446558509901</v>
+        <v>-0.007354999948844444</v>
       </c>
       <c r="F46">
-        <v>-0.02059765076779494</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01606634302706009</v>
+      </c>
+      <c r="G46">
+        <v>0.001811103868494623</v>
+      </c>
+      <c r="H46">
+        <v>-0.01523116483008327</v>
+      </c>
+      <c r="I46">
+        <v>0.01518169630172041</v>
+      </c>
+      <c r="J46">
+        <v>0.09267457865512778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.009650786902413609</v>
+        <v>0.02226572524136294</v>
       </c>
       <c r="C47">
-        <v>-0.0556693956048658</v>
+        <v>0.06705887912533445</v>
       </c>
       <c r="D47">
-        <v>-0.04536208957942447</v>
+        <v>0.03863771983741742</v>
       </c>
       <c r="E47">
-        <v>0.04013445956726164</v>
+        <v>-0.03039529861716515</v>
       </c>
       <c r="F47">
-        <v>-0.03424851853083392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.006277355661763387</v>
+      </c>
+      <c r="G47">
+        <v>0.006172389892935658</v>
+      </c>
+      <c r="H47">
+        <v>-0.01771189676967212</v>
+      </c>
+      <c r="I47">
+        <v>-0.002699104663132242</v>
+      </c>
+      <c r="J47">
+        <v>0.06988768097594218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.002371744472202491</v>
+        <v>0.01732867210430637</v>
       </c>
       <c r="C48">
-        <v>-0.05142759953257033</v>
+        <v>0.04572474682064079</v>
       </c>
       <c r="D48">
-        <v>-0.0698653978781965</v>
+        <v>0.04013723876441285</v>
       </c>
       <c r="E48">
-        <v>0.02971963066492117</v>
+        <v>-0.04061558108609428</v>
       </c>
       <c r="F48">
-        <v>-0.01462113974190556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01822478141367254</v>
+      </c>
+      <c r="G48">
+        <v>-0.002156910199947974</v>
+      </c>
+      <c r="H48">
+        <v>-0.03329864503068163</v>
+      </c>
+      <c r="I48">
+        <v>-0.01926920067794305</v>
+      </c>
+      <c r="J48">
+        <v>0.1206293733889937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02735792731772113</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05931600723353503</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007062387539516523</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03581017460220055</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.05652041430981262</v>
+      </c>
+      <c r="G49">
+        <v>0.07070269871606369</v>
+      </c>
+      <c r="H49">
+        <v>-0.05129427805212923</v>
+      </c>
+      <c r="I49">
+        <v>0.08648527323942187</v>
+      </c>
+      <c r="J49">
+        <v>-0.1020013997030025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.00189050408118066</v>
+        <v>0.01778466770090119</v>
       </c>
       <c r="C50">
-        <v>-0.05775971290912179</v>
+        <v>0.07129744821943795</v>
       </c>
       <c r="D50">
-        <v>-0.03246938054623374</v>
+        <v>0.02007779320150696</v>
       </c>
       <c r="E50">
-        <v>0.001997271745014864</v>
+        <v>-0.03204102089845558</v>
       </c>
       <c r="F50">
-        <v>0.009001222608120309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0220211348252631</v>
+      </c>
+      <c r="G50">
+        <v>-0.002056226473891906</v>
+      </c>
+      <c r="H50">
+        <v>-0.03416743546271719</v>
+      </c>
+      <c r="I50">
+        <v>0.009151371418527905</v>
+      </c>
+      <c r="J50">
+        <v>0.05494511976281992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.0007929489611300189</v>
+        <v>-0.004131987143442975</v>
       </c>
       <c r="C51">
-        <v>-0.07463860737462361</v>
+        <v>0.03573778597495115</v>
       </c>
       <c r="D51">
-        <v>-0.04658967490737524</v>
+        <v>0.02596892944361184</v>
       </c>
       <c r="E51">
-        <v>-0.03696332844021308</v>
+        <v>-0.003323637430881242</v>
       </c>
       <c r="F51">
-        <v>0.0123266551375636</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01502846687655668</v>
+      </c>
+      <c r="G51">
+        <v>-0.01918619974011377</v>
+      </c>
+      <c r="H51">
+        <v>-0.02041891664618049</v>
+      </c>
+      <c r="I51">
+        <v>0.0286014634487045</v>
+      </c>
+      <c r="J51">
+        <v>0.1146555491898066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.03245982858986256</v>
+        <v>0.0666694770921523</v>
       </c>
       <c r="C53">
-        <v>-0.09831725237566719</v>
+        <v>0.1242715329283683</v>
       </c>
       <c r="D53">
-        <v>-0.05312330585122597</v>
+        <v>0.04821244290565038</v>
       </c>
       <c r="E53">
-        <v>0.07869603371632804</v>
+        <v>-0.03366437688696741</v>
       </c>
       <c r="F53">
-        <v>0.03209672916845266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0486333524130417</v>
+      </c>
+      <c r="G53">
+        <v>0.02585854134154245</v>
+      </c>
+      <c r="H53">
+        <v>-0.02029732572167026</v>
+      </c>
+      <c r="I53">
+        <v>-0.09653244668059469</v>
+      </c>
+      <c r="J53">
+        <v>-0.03845421155697606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.003989134958250332</v>
+        <v>0.01977101847534327</v>
       </c>
       <c r="C54">
-        <v>-0.07437270441495689</v>
+        <v>0.0721072095539534</v>
       </c>
       <c r="D54">
-        <v>-0.02264408121123863</v>
+        <v>0.006187165986443095</v>
       </c>
       <c r="E54">
-        <v>0.04423219447563157</v>
+        <v>-0.01233134650172558</v>
       </c>
       <c r="F54">
-        <v>0.007193365270341995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.00165409111530815</v>
+      </c>
+      <c r="G54">
+        <v>0.003997938352532497</v>
+      </c>
+      <c r="H54">
+        <v>-0.006122342530724887</v>
+      </c>
+      <c r="I54">
+        <v>0.006296454655444132</v>
+      </c>
+      <c r="J54">
+        <v>0.06144243472400618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.01468592525424928</v>
+        <v>0.03380585630989102</v>
       </c>
       <c r="C55">
-        <v>-0.05372369088698408</v>
+        <v>0.07956257465655052</v>
       </c>
       <c r="D55">
-        <v>-0.05701877475427018</v>
+        <v>0.04178828118806834</v>
       </c>
       <c r="E55">
-        <v>0.05689176771414742</v>
+        <v>-0.03743028462679633</v>
       </c>
       <c r="F55">
-        <v>-0.01412093312683876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03224863023070097</v>
+      </c>
+      <c r="G55">
+        <v>0.0212730743815461</v>
+      </c>
+      <c r="H55">
+        <v>-0.004770421107735563</v>
+      </c>
+      <c r="I55">
+        <v>-0.04315284583659356</v>
+      </c>
+      <c r="J55">
+        <v>-0.006258435068699268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.01292819053044631</v>
+        <v>0.05961666701352111</v>
       </c>
       <c r="C56">
-        <v>-0.1310507370071731</v>
+        <v>0.1563125864906967</v>
       </c>
       <c r="D56">
-        <v>-0.05971612030563563</v>
+        <v>0.06984782024831596</v>
       </c>
       <c r="E56">
-        <v>0.04175845202428888</v>
+        <v>-0.05245309352739787</v>
       </c>
       <c r="F56">
-        <v>0.01323625763250192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1057124972938291</v>
+      </c>
+      <c r="G56">
+        <v>0.03033886244036965</v>
+      </c>
+      <c r="H56">
+        <v>-0.0498694283097449</v>
+      </c>
+      <c r="I56">
+        <v>-0.1855719455214764</v>
+      </c>
+      <c r="J56">
+        <v>-0.07590806176456372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01479539268452792</v>
+        <v>0.01952552107406918</v>
       </c>
       <c r="C58">
-        <v>-0.2785298967836877</v>
+        <v>0.1645632102490371</v>
       </c>
       <c r="D58">
-        <v>0.0327974554964272</v>
+        <v>0.03277420970904167</v>
       </c>
       <c r="E58">
-        <v>-0.1796169998956221</v>
+        <v>-0.01913484358236506</v>
       </c>
       <c r="F58">
-        <v>0.1250910690565751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.264249025408076</v>
+      </c>
+      <c r="G58">
+        <v>-0.2306775321445748</v>
+      </c>
+      <c r="H58">
+        <v>-0.0034613491835885</v>
+      </c>
+      <c r="I58">
+        <v>-0.01822747021704802</v>
+      </c>
+      <c r="J58">
+        <v>0.1703589534696347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2886259371109073</v>
+        <v>0.284736531667325</v>
       </c>
       <c r="C59">
-        <v>-0.0005121715859663993</v>
+        <v>-0.0683219341175644</v>
       </c>
       <c r="D59">
-        <v>0.01874331756673239</v>
+        <v>-0.006098065781862491</v>
       </c>
       <c r="E59">
-        <v>-0.06009257128849067</v>
+        <v>0.006488593494427422</v>
       </c>
       <c r="F59">
-        <v>-0.05024158771809929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02397012823238018</v>
+      </c>
+      <c r="G59">
+        <v>-0.06029969594991171</v>
+      </c>
+      <c r="H59">
+        <v>0.0256018004225191</v>
+      </c>
+      <c r="I59">
+        <v>-0.004182633792914788</v>
+      </c>
+      <c r="J59">
+        <v>-0.006916994401752772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1266247165196954</v>
+        <v>0.1600433900156474</v>
       </c>
       <c r="C60">
-        <v>-0.1466326392331366</v>
+        <v>0.1578103082557141</v>
       </c>
       <c r="D60">
-        <v>-0.07864636317536955</v>
+        <v>0.006073780025869762</v>
       </c>
       <c r="E60">
-        <v>0.1694079985078341</v>
+        <v>-0.07451724057408905</v>
       </c>
       <c r="F60">
-        <v>-0.2581739685863365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1533965298662208</v>
+      </c>
+      <c r="G60">
+        <v>0.1002181519106088</v>
+      </c>
+      <c r="H60">
+        <v>0.234557855036798</v>
+      </c>
+      <c r="I60">
+        <v>0.1616828517817511</v>
+      </c>
+      <c r="J60">
+        <v>-0.1480855296010046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.006664894925476531</v>
+        <v>0.02988407596101772</v>
       </c>
       <c r="C61">
-        <v>-0.08813949603145051</v>
+        <v>0.09956837867821965</v>
       </c>
       <c r="D61">
-        <v>-0.07856817158687517</v>
+        <v>0.04320867063659748</v>
       </c>
       <c r="E61">
-        <v>0.04441656805650324</v>
+        <v>-0.0354376423300776</v>
       </c>
       <c r="F61">
-        <v>-0.03145243496509776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02219233480264464</v>
+      </c>
+      <c r="G61">
+        <v>0.02492432502672444</v>
+      </c>
+      <c r="H61">
+        <v>-0.03980576995456708</v>
+      </c>
+      <c r="I61">
+        <v>0.02925180412860003</v>
+      </c>
+      <c r="J61">
+        <v>0.03181210476370872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002498785874564309</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01456164344878818</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.006580430944862002</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.03081698428296155</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.01807693169234932</v>
+      </c>
+      <c r="G62">
+        <v>0.001145055707581089</v>
+      </c>
+      <c r="H62">
+        <v>-0.0001213414163136578</v>
+      </c>
+      <c r="I62">
+        <v>0.02481537474550133</v>
+      </c>
+      <c r="J62">
+        <v>0.01654749851224884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.002422406188789528</v>
+        <v>0.02866611628415258</v>
       </c>
       <c r="C63">
-        <v>-0.05309222066526391</v>
+        <v>0.05960724984491911</v>
       </c>
       <c r="D63">
-        <v>-0.04949542985330983</v>
+        <v>0.04980407488986563</v>
       </c>
       <c r="E63">
-        <v>0.008414893499711208</v>
+        <v>-0.03991364195178629</v>
       </c>
       <c r="F63">
-        <v>0.006389804035860959</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008271752484667784</v>
+      </c>
+      <c r="G63">
+        <v>0.002057650888660785</v>
+      </c>
+      <c r="H63">
+        <v>-0.04270446433941964</v>
+      </c>
+      <c r="I63">
+        <v>0.0005107942375581575</v>
+      </c>
+      <c r="J63">
+        <v>0.05057797879161959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.00212897524743958</v>
+        <v>0.0169702593494187</v>
       </c>
       <c r="C64">
-        <v>-0.08914609633712749</v>
+        <v>0.07945871858580365</v>
       </c>
       <c r="D64">
-        <v>-0.09137616897965219</v>
+        <v>0.01668425255044557</v>
       </c>
       <c r="E64">
-        <v>0.04421266271469947</v>
+        <v>-0.04020894488057253</v>
       </c>
       <c r="F64">
-        <v>0.003963050663141399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03937213145087414</v>
+      </c>
+      <c r="G64">
+        <v>-0.002462511777756225</v>
+      </c>
+      <c r="H64">
+        <v>0.02393261388687712</v>
+      </c>
+      <c r="I64">
+        <v>0.03370239428116154</v>
+      </c>
+      <c r="J64">
+        <v>0.04105897951195946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.02069224292656187</v>
+        <v>0.03549016431731247</v>
       </c>
       <c r="C65">
-        <v>-0.1000802733551062</v>
+        <v>0.09090046658502746</v>
       </c>
       <c r="D65">
-        <v>-0.07279124407818492</v>
+        <v>0.01843922985656205</v>
       </c>
       <c r="E65">
-        <v>0.05704192971992284</v>
+        <v>-0.008974187008818383</v>
       </c>
       <c r="F65">
-        <v>-0.03118747933275998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.006609134414678376</v>
+      </c>
+      <c r="G65">
+        <v>0.01417214276483593</v>
+      </c>
+      <c r="H65">
+        <v>0.02913007341680569</v>
+      </c>
+      <c r="I65">
+        <v>0.07172512595816204</v>
+      </c>
+      <c r="J65">
+        <v>0.01023203171062538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.0004840349976419349</v>
+        <v>0.02945963972553263</v>
       </c>
       <c r="C66">
-        <v>-0.1750660681059836</v>
+        <v>0.1710378967634703</v>
       </c>
       <c r="D66">
-        <v>-0.05496098413885112</v>
+        <v>0.03796968636753219</v>
       </c>
       <c r="E66">
-        <v>0.004728896585622276</v>
+        <v>-0.04748615616429464</v>
       </c>
       <c r="F66">
-        <v>-0.03500010038053913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01241254470578681</v>
+      </c>
+      <c r="G66">
+        <v>-0.006039933326650423</v>
+      </c>
+      <c r="H66">
+        <v>-0.05740535834972824</v>
+      </c>
+      <c r="I66">
+        <v>0.04408234728653362</v>
+      </c>
+      <c r="J66">
+        <v>0.03443989175738436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.02900521671099496</v>
+        <v>0.02337390424313584</v>
       </c>
       <c r="C67">
-        <v>-0.01863197401902236</v>
+        <v>0.05384802200176176</v>
       </c>
       <c r="D67">
-        <v>-0.05927359122040054</v>
+        <v>0.04737144244079373</v>
       </c>
       <c r="E67">
-        <v>0.06220478215410164</v>
+        <v>0.008937957757961103</v>
       </c>
       <c r="F67">
-        <v>-0.02699226360756928</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.007905946995812319</v>
+      </c>
+      <c r="G67">
+        <v>0.02795259697506376</v>
+      </c>
+      <c r="H67">
+        <v>0.0132843378496461</v>
+      </c>
+      <c r="I67">
+        <v>0.04199809346901503</v>
+      </c>
+      <c r="J67">
+        <v>0.06780841718002405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2989204408713219</v>
+        <v>0.2851210997226634</v>
       </c>
       <c r="C68">
-        <v>0.006542400801833558</v>
+        <v>-0.1022368996018767</v>
       </c>
       <c r="D68">
-        <v>-0.005548558536634654</v>
+        <v>-0.03895622274860847</v>
       </c>
       <c r="E68">
-        <v>-0.04036549568443489</v>
+        <v>-0.0183042112258585</v>
       </c>
       <c r="F68">
-        <v>0.01187461560155787</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02404354207560321</v>
+      </c>
+      <c r="G68">
+        <v>-0.03521126538472452</v>
+      </c>
+      <c r="H68">
+        <v>-0.01176434514777288</v>
+      </c>
+      <c r="I68">
+        <v>-0.02375201741619421</v>
+      </c>
+      <c r="J68">
+        <v>0.0298872744215502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.009037873022530857</v>
+        <v>0.0115323133975562</v>
       </c>
       <c r="C69">
-        <v>-0.04374700103296328</v>
+        <v>0.04455098109688273</v>
       </c>
       <c r="D69">
-        <v>-0.03863495659929422</v>
+        <v>0.02591743987741205</v>
       </c>
       <c r="E69">
-        <v>0.04446349702738815</v>
+        <v>0.003223979667059513</v>
       </c>
       <c r="F69">
-        <v>-0.01272651710913679</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004286507934143605</v>
+      </c>
+      <c r="G69">
+        <v>-0.002761471434933005</v>
+      </c>
+      <c r="H69">
+        <v>0.01387989714135625</v>
+      </c>
+      <c r="I69">
+        <v>0.01308102581167065</v>
+      </c>
+      <c r="J69">
+        <v>0.03141547089648576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.285227836150445</v>
+        <v>0.271765704784027</v>
       </c>
       <c r="C71">
-        <v>0.03185933787559089</v>
+        <v>-0.09040331663213073</v>
       </c>
       <c r="D71">
-        <v>0.01027334634877864</v>
+        <v>-0.01517523381005766</v>
       </c>
       <c r="E71">
-        <v>-0.03742913209933929</v>
+        <v>0.0144896867173018</v>
       </c>
       <c r="F71">
-        <v>0.02766504907522687</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05361856975735429</v>
+      </c>
+      <c r="G71">
+        <v>-0.03777280485690884</v>
+      </c>
+      <c r="H71">
+        <v>-0.004024328426696117</v>
+      </c>
+      <c r="I71">
+        <v>-0.01734268417587899</v>
+      </c>
+      <c r="J71">
+        <v>0.05806114175239824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.02098566626369579</v>
+        <v>0.0603520917615985</v>
       </c>
       <c r="C72">
-        <v>-0.1341213446986259</v>
+        <v>0.1278987204739719</v>
       </c>
       <c r="D72">
-        <v>-0.05030755870687687</v>
+        <v>0.02657318569299936</v>
       </c>
       <c r="E72">
-        <v>0.0509605738503711</v>
+        <v>-0.05264953939920554</v>
       </c>
       <c r="F72">
-        <v>0.02134818533460927</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03002588305458245</v>
+      </c>
+      <c r="G72">
+        <v>0.02688495132213708</v>
+      </c>
+      <c r="H72">
+        <v>-0.01616583318322157</v>
+      </c>
+      <c r="I72">
+        <v>-0.009817616862931316</v>
+      </c>
+      <c r="J72">
+        <v>0.05385832978101296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.09502543980703219</v>
+        <v>0.1608217201253004</v>
       </c>
       <c r="C73">
-        <v>-0.1093552833972576</v>
+        <v>0.1801249426916336</v>
       </c>
       <c r="D73">
-        <v>-0.1261789604884447</v>
+        <v>0.0525114004374631</v>
       </c>
       <c r="E73">
-        <v>0.2557361215907688</v>
+        <v>-0.06073808689910686</v>
       </c>
       <c r="F73">
-        <v>-0.328256071715085</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1714724925310941</v>
+      </c>
+      <c r="G73">
+        <v>0.191035179780782</v>
+      </c>
+      <c r="H73">
+        <v>0.3342432574167989</v>
+      </c>
+      <c r="I73">
+        <v>0.3270369515830409</v>
+      </c>
+      <c r="J73">
+        <v>-0.1764535892260023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.01512640339992648</v>
+        <v>0.04270370167846289</v>
       </c>
       <c r="C74">
-        <v>-0.08374622614869999</v>
+        <v>0.09702119283330804</v>
       </c>
       <c r="D74">
-        <v>-0.07613231516853723</v>
+        <v>0.03240971239691803</v>
       </c>
       <c r="E74">
-        <v>0.04944088091533852</v>
+        <v>-0.03852544303456051</v>
       </c>
       <c r="F74">
-        <v>-0.007356129516228238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01391413429206563</v>
+      </c>
+      <c r="G74">
+        <v>0.02843517875683279</v>
+      </c>
+      <c r="H74">
+        <v>-0.0005218147989729989</v>
+      </c>
+      <c r="I74">
+        <v>-0.06317801022475245</v>
+      </c>
+      <c r="J74">
+        <v>0.01494409336567928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.03103236210311157</v>
+        <v>0.06989298632715073</v>
       </c>
       <c r="C75">
-        <v>-0.1315047131003126</v>
+        <v>0.1571890171243035</v>
       </c>
       <c r="D75">
-        <v>-0.04931586830365597</v>
+        <v>0.06509355453924555</v>
       </c>
       <c r="E75">
-        <v>0.09832043161820035</v>
+        <v>-0.07381107284683179</v>
       </c>
       <c r="F75">
-        <v>0.04748432509379871</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04548260304803809</v>
+      </c>
+      <c r="G75">
+        <v>0.08511429190577789</v>
+      </c>
+      <c r="H75">
+        <v>-0.1209176840157594</v>
+      </c>
+      <c r="I75">
+        <v>-0.1983398380855148</v>
+      </c>
+      <c r="J75">
+        <v>-0.06544846486418743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.01528305837467147</v>
+        <v>0.05186876997474103</v>
       </c>
       <c r="C76">
-        <v>-0.09406696935243922</v>
+        <v>0.1288184206669253</v>
       </c>
       <c r="D76">
-        <v>-0.06469697749193262</v>
+        <v>0.06692377622645729</v>
       </c>
       <c r="E76">
-        <v>0.08590897738967573</v>
+        <v>-0.0427997091038075</v>
       </c>
       <c r="F76">
-        <v>0.004730819890779748</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.065002131075568</v>
+      </c>
+      <c r="G76">
+        <v>0.04873549380813519</v>
+      </c>
+      <c r="H76">
+        <v>-0.05900331348611237</v>
+      </c>
+      <c r="I76">
+        <v>-0.08629655024041552</v>
+      </c>
+      <c r="J76">
+        <v>-0.06593777374718783</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.08380275864124054</v>
+        <v>0.06721043229287718</v>
       </c>
       <c r="C77">
-        <v>-0.3507304386802363</v>
+        <v>0.3796665947934459</v>
       </c>
       <c r="D77">
-        <v>0.8330235577697581</v>
+        <v>-0.8707018722104174</v>
       </c>
       <c r="E77">
-        <v>0.3304711437943459</v>
+        <v>0.2547764621936849</v>
       </c>
       <c r="F77">
-        <v>-0.0535993297196438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.003058623756259839</v>
+      </c>
+      <c r="G77">
+        <v>0.06792840677571185</v>
+      </c>
+      <c r="H77">
+        <v>-0.09733118075347616</v>
+      </c>
+      <c r="I77">
+        <v>-0.002010581748548881</v>
+      </c>
+      <c r="J77">
+        <v>0.01589336767304976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.01757776397635663</v>
+        <v>0.03887115699333903</v>
       </c>
       <c r="C78">
-        <v>-0.1298730733887968</v>
+        <v>0.1103646674115722</v>
       </c>
       <c r="D78">
-        <v>-0.1433763144189948</v>
+        <v>0.08058946102442703</v>
       </c>
       <c r="E78">
-        <v>-0.09282042259434398</v>
+        <v>-0.02436892750724482</v>
       </c>
       <c r="F78">
-        <v>-0.08420495244032326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.0320560563351488</v>
+      </c>
+      <c r="G78">
+        <v>-0.02818177288856485</v>
+      </c>
+      <c r="H78">
+        <v>-0.04991364169134126</v>
+      </c>
+      <c r="I78">
+        <v>-0.05752681387852689</v>
+      </c>
+      <c r="J78">
+        <v>0.07063414551151224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.02488950609808263</v>
+        <v>0.06140135793108051</v>
       </c>
       <c r="C79">
-        <v>-0.1233806838354146</v>
+        <v>0.1304042915790821</v>
       </c>
       <c r="D79">
-        <v>-0.07912212502384064</v>
+        <v>0.04384267526238127</v>
       </c>
       <c r="E79">
-        <v>0.06950127063884633</v>
+        <v>-0.04322853269682742</v>
       </c>
       <c r="F79">
-        <v>0.03847647050922148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.03205234358633312</v>
+      </c>
+      <c r="G79">
+        <v>0.002885848919107493</v>
+      </c>
+      <c r="H79">
+        <v>-0.08971933074556319</v>
+      </c>
+      <c r="I79">
+        <v>-0.2421738323833931</v>
+      </c>
+      <c r="J79">
+        <v>-0.01402533599964254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.009070734817072771</v>
+        <v>0.02141521496445092</v>
       </c>
       <c r="C80">
-        <v>-0.05572085083191105</v>
+        <v>0.04258906013518598</v>
       </c>
       <c r="D80">
-        <v>-0.03498375762045225</v>
+        <v>0.03245966320304051</v>
       </c>
       <c r="E80">
-        <v>-0.02306456673033085</v>
+        <v>-0.00766103048671273</v>
       </c>
       <c r="F80">
-        <v>-0.03223673997090128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01800283395523088</v>
+      </c>
+      <c r="G80">
+        <v>-0.06283434356272259</v>
+      </c>
+      <c r="H80">
+        <v>0.0401350736559888</v>
+      </c>
+      <c r="I80">
+        <v>0.06864018007935503</v>
+      </c>
+      <c r="J80">
+        <v>-0.01580573871685062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.000647384643758491</v>
+        <v>0.02425855723918958</v>
       </c>
       <c r="C81">
-        <v>-0.08126911917096714</v>
+        <v>0.1013480057368463</v>
       </c>
       <c r="D81">
-        <v>-0.05522222306836162</v>
+        <v>0.04818681620050235</v>
       </c>
       <c r="E81">
-        <v>0.07672831941425265</v>
+        <v>-0.02973343504810374</v>
       </c>
       <c r="F81">
-        <v>0.01322510858020993</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03929533702317337</v>
+      </c>
+      <c r="G81">
+        <v>0.01507584524274461</v>
+      </c>
+      <c r="H81">
+        <v>-0.05557119784540927</v>
+      </c>
+      <c r="I81">
+        <v>-0.1174062615754726</v>
+      </c>
+      <c r="J81">
+        <v>0.03478092411286943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.01993220419451077</v>
+        <v>0.0525862742041573</v>
       </c>
       <c r="C82">
-        <v>-0.07251741062109703</v>
+        <v>0.1064812210941773</v>
       </c>
       <c r="D82">
-        <v>-0.06803095932511027</v>
+        <v>0.05707455400566842</v>
       </c>
       <c r="E82">
-        <v>0.08135558223347349</v>
+        <v>-0.03290803561825358</v>
       </c>
       <c r="F82">
-        <v>-0.0007280002473323119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06788718859091709</v>
+      </c>
+      <c r="G82">
+        <v>0.03466416621828475</v>
+      </c>
+      <c r="H82">
+        <v>-0.0637096477034563</v>
+      </c>
+      <c r="I82">
+        <v>-0.07100593896494135</v>
+      </c>
+      <c r="J82">
+        <v>-0.03663343346885454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.007492200505564961</v>
+        <v>-0.0006198645161181581</v>
       </c>
       <c r="C83">
-        <v>-0.0114981518277823</v>
+        <v>-0.02074936662561461</v>
       </c>
       <c r="D83">
-        <v>0.1647249405071256</v>
+        <v>-0.05633736452820368</v>
       </c>
       <c r="E83">
-        <v>-0.4767307756504456</v>
+        <v>0.03434880393679775</v>
       </c>
       <c r="F83">
-        <v>-0.7186235431551021</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.629822436192895</v>
+      </c>
+      <c r="G83">
+        <v>-0.7246155003057194</v>
+      </c>
+      <c r="H83">
+        <v>-0.04519632535121157</v>
+      </c>
+      <c r="I83">
+        <v>0.03427923218060577</v>
+      </c>
+      <c r="J83">
+        <v>-0.1065042108993925</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.01038736481734015</v>
+        <v>0.015680323774977</v>
       </c>
       <c r="C84">
-        <v>-0.104132915907874</v>
+        <v>0.06657183837131272</v>
       </c>
       <c r="D84">
-        <v>-0.02737009666055246</v>
+        <v>0.1103485185733348</v>
       </c>
       <c r="E84">
-        <v>-0.05726272256518439</v>
+        <v>0.04226881601318973</v>
       </c>
       <c r="F84">
-        <v>0.1369541206820153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.2067854279703504</v>
+      </c>
+      <c r="G84">
+        <v>-0.09565953559942082</v>
+      </c>
+      <c r="H84">
+        <v>-0.6653890984588876</v>
+      </c>
+      <c r="I84">
+        <v>0.4671628314579673</v>
+      </c>
+      <c r="J84">
+        <v>-0.4173386780823726</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.003097501364793374</v>
+        <v>0.03654496074155171</v>
       </c>
       <c r="C85">
-        <v>-0.08563061368019632</v>
+        <v>0.1180875659708444</v>
       </c>
       <c r="D85">
-        <v>-0.04484872655600199</v>
+        <v>0.06878267823702955</v>
       </c>
       <c r="E85">
-        <v>0.06476321184741235</v>
+        <v>-0.03613352145420418</v>
       </c>
       <c r="F85">
-        <v>0.02039653077335305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.09675635124726854</v>
+      </c>
+      <c r="G85">
+        <v>0.07169617864578737</v>
+      </c>
+      <c r="H85">
+        <v>-0.1135229571777565</v>
+      </c>
+      <c r="I85">
+        <v>-0.2225281389125315</v>
+      </c>
+      <c r="J85">
+        <v>-0.09141671477531346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.01296832553687423</v>
+        <v>0.01785315799075109</v>
       </c>
       <c r="C86">
-        <v>-0.1082189490064059</v>
+        <v>0.0770645716968177</v>
       </c>
       <c r="D86">
-        <v>-0.01430769979106026</v>
+        <v>0.03772765458170365</v>
       </c>
       <c r="E86">
-        <v>-0.02437199088450261</v>
+        <v>-0.005936368594477516</v>
       </c>
       <c r="F86">
-        <v>0.02847771183844998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.06117478614524327</v>
+      </c>
+      <c r="G86">
+        <v>-0.07642788698730985</v>
+      </c>
+      <c r="H86">
+        <v>0.05113319104298768</v>
+      </c>
+      <c r="I86">
+        <v>-0.07487655304412542</v>
+      </c>
+      <c r="J86">
+        <v>0.04464741423425896</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.006987934092801463</v>
+        <v>0.03272201170579693</v>
       </c>
       <c r="C87">
-        <v>-0.1659835581758674</v>
+        <v>0.1224738814286961</v>
       </c>
       <c r="D87">
-        <v>-0.05382550581442352</v>
+        <v>0.009122125796097658</v>
       </c>
       <c r="E87">
-        <v>-0.0871252969762653</v>
+        <v>-0.04520607623324271</v>
       </c>
       <c r="F87">
-        <v>0.06091865374634496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.0194694701764153</v>
+      </c>
+      <c r="G87">
+        <v>-0.02774314926007212</v>
+      </c>
+      <c r="H87">
+        <v>-0.02014172005388264</v>
+      </c>
+      <c r="I87">
+        <v>-0.01572574815296262</v>
+      </c>
+      <c r="J87">
+        <v>0.02851403487865232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0104212952583346</v>
+        <v>0.0403292738349062</v>
       </c>
       <c r="C88">
-        <v>-0.03316689689228418</v>
+        <v>0.06088142038982614</v>
       </c>
       <c r="D88">
-        <v>-0.04317481608500557</v>
+        <v>0.03191889648690846</v>
       </c>
       <c r="E88">
-        <v>0.0529829983450394</v>
+        <v>-0.02011425834432079</v>
       </c>
       <c r="F88">
-        <v>-0.01059647581476502</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01784758347749633</v>
+      </c>
+      <c r="G88">
+        <v>0.02407627409413796</v>
+      </c>
+      <c r="H88">
+        <v>0.01662722087981779</v>
+      </c>
+      <c r="I88">
+        <v>-0.005095113506701033</v>
+      </c>
+      <c r="J88">
+        <v>0.01697406066281686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4134174927340042</v>
+        <v>0.3863795032939888</v>
       </c>
       <c r="C89">
-        <v>0.05847302540559796</v>
+        <v>-0.1327438065205971</v>
       </c>
       <c r="D89">
-        <v>-0.09469359597909977</v>
+        <v>-0.03056103714544771</v>
       </c>
       <c r="E89">
-        <v>-0.09559551925671704</v>
+        <v>0.003023118032849465</v>
       </c>
       <c r="F89">
-        <v>0.05111254797705054</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.05211125144867938</v>
+      </c>
+      <c r="G89">
+        <v>0.01396637211925568</v>
+      </c>
+      <c r="H89">
+        <v>-0.05879085491002453</v>
+      </c>
+      <c r="I89">
+        <v>0.02977766154676767</v>
+      </c>
+      <c r="J89">
+        <v>-0.001606637554941864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3089412507338744</v>
+        <v>0.3142637862501906</v>
       </c>
       <c r="C90">
-        <v>0.01303886111429589</v>
+        <v>-0.09081144438614448</v>
       </c>
       <c r="D90">
-        <v>0.01713870948663475</v>
+        <v>-0.01236209502840618</v>
       </c>
       <c r="E90">
-        <v>-0.05349470890251881</v>
+        <v>0.02263733040080387</v>
       </c>
       <c r="F90">
-        <v>-0.009219950537714246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01919612883237005</v>
+      </c>
+      <c r="G90">
+        <v>-0.02743890875473172</v>
+      </c>
+      <c r="H90">
+        <v>-0.0212514832137594</v>
+      </c>
+      <c r="I90">
+        <v>-0.0006909100727007882</v>
+      </c>
+      <c r="J90">
+        <v>0.009910814214579134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.03019623717859794</v>
+        <v>0.05978609690180799</v>
       </c>
       <c r="C91">
-        <v>-0.07023944364666056</v>
+        <v>0.07251928205702052</v>
       </c>
       <c r="D91">
-        <v>-0.05571667949526347</v>
+        <v>0.04368744957318517</v>
       </c>
       <c r="E91">
-        <v>0.02283127276212402</v>
+        <v>-0.03140168837876682</v>
       </c>
       <c r="F91">
-        <v>-0.01975013696270446</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06215565760094956</v>
+      </c>
+      <c r="G91">
+        <v>-0.004648138295348582</v>
+      </c>
+      <c r="H91">
+        <v>-0.01201016563016252</v>
+      </c>
+      <c r="I91">
+        <v>-0.09582973688421981</v>
+      </c>
+      <c r="J91">
+        <v>-0.04237586232661723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3765742018476062</v>
+        <v>0.3460991471797563</v>
       </c>
       <c r="C92">
-        <v>0.0551465453878818</v>
+        <v>-0.1332943553811473</v>
       </c>
       <c r="D92">
-        <v>0.01051654572851059</v>
+        <v>-0.0587594716271124</v>
       </c>
       <c r="E92">
-        <v>0.007200080936674433</v>
+        <v>-0.0180871988422285</v>
       </c>
       <c r="F92">
-        <v>0.1173620140615035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06536178389712625</v>
+      </c>
+      <c r="G92">
+        <v>-0.008650573169326586</v>
+      </c>
+      <c r="H92">
+        <v>-0.02584682800206196</v>
+      </c>
+      <c r="I92">
+        <v>-0.01723002298398348</v>
+      </c>
+      <c r="J92">
+        <v>0.05906949429465599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3136906294869565</v>
+        <v>0.3040328818073242</v>
       </c>
       <c r="C93">
-        <v>0.0677933948812077</v>
+        <v>-0.1312423369629181</v>
       </c>
       <c r="D93">
-        <v>0.005148844740352407</v>
+        <v>0.004666641823364634</v>
       </c>
       <c r="E93">
-        <v>-0.05659859107881004</v>
+        <v>0.03188051765603657</v>
       </c>
       <c r="F93">
-        <v>0.02538186618119957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04337735115722754</v>
+      </c>
+      <c r="G93">
+        <v>-0.03509093715093715</v>
+      </c>
+      <c r="H93">
+        <v>-0.01440941168058538</v>
+      </c>
+      <c r="I93">
+        <v>-0.03845414424726162</v>
+      </c>
+      <c r="J93">
+        <v>0.03185191940780226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.03324723924711669</v>
+        <v>0.09102573377933421</v>
       </c>
       <c r="C94">
-        <v>-0.1900080241288054</v>
+        <v>0.1647756074231895</v>
       </c>
       <c r="D94">
-        <v>-0.07292649681817742</v>
+        <v>0.08454352499522794</v>
       </c>
       <c r="E94">
-        <v>0.05084114297965814</v>
+        <v>-0.06062965764628305</v>
       </c>
       <c r="F94">
-        <v>0.1775388385886688</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07157257106559396</v>
+      </c>
+      <c r="G94">
+        <v>0.04371342990052515</v>
+      </c>
+      <c r="H94">
+        <v>-0.1356290146888139</v>
+      </c>
+      <c r="I94">
+        <v>-0.452022551450543</v>
+      </c>
+      <c r="J94">
+        <v>-0.2616773371414685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.0288906464465071</v>
+        <v>0.04679015469147389</v>
       </c>
       <c r="C95">
-        <v>-0.1226894574984578</v>
+        <v>0.1274743841042244</v>
       </c>
       <c r="D95">
-        <v>-0.08417622229436128</v>
+        <v>0.04848462187140278</v>
       </c>
       <c r="E95">
-        <v>0.1457047114744993</v>
+        <v>-0.07270024116732322</v>
       </c>
       <c r="F95">
-        <v>-0.07223572689199148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03650007796553939</v>
+      </c>
+      <c r="G95">
+        <v>0.07218067585455125</v>
+      </c>
+      <c r="H95">
+        <v>-0.1060876694675756</v>
+      </c>
+      <c r="I95">
+        <v>0.04067289182926932</v>
+      </c>
+      <c r="J95">
+        <v>-0.0405519365452069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.0006380160622928162</v>
+        <v>0.02576958269956875</v>
       </c>
       <c r="C97">
-        <v>-0.001078978151857499</v>
+        <v>0.03035870499805016</v>
       </c>
       <c r="D97">
-        <v>-0.002519127872397204</v>
+        <v>0.01419467672152504</v>
       </c>
       <c r="E97">
-        <v>0.004555566558381585</v>
+        <v>0.02899543190818803</v>
       </c>
       <c r="F97">
-        <v>0.0009651350401564703</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01926994657553705</v>
+      </c>
+      <c r="G97">
+        <v>0.01546823432608466</v>
+      </c>
+      <c r="H97">
+        <v>0.003637928905967858</v>
+      </c>
+      <c r="I97">
+        <v>-0.01187174861025546</v>
+      </c>
+      <c r="J97">
+        <v>0.03089247399122189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.09111210724209345</v>
+        <v>0.1460557981151159</v>
       </c>
       <c r="C98">
-        <v>-0.1532327833820862</v>
+        <v>0.1585252006185955</v>
       </c>
       <c r="D98">
-        <v>-0.1507916990579106</v>
+        <v>0.07515697182157897</v>
       </c>
       <c r="E98">
-        <v>0.1801705227958784</v>
+        <v>-0.04182438756681928</v>
       </c>
       <c r="F98">
-        <v>-0.2374299309658157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1882189544841479</v>
+      </c>
+      <c r="G98">
+        <v>0.1495552777516324</v>
+      </c>
+      <c r="H98">
+        <v>0.2938515047740798</v>
+      </c>
+      <c r="I98">
+        <v>0.2456556052540866</v>
+      </c>
+      <c r="J98">
+        <v>-0.2057246936276751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.04760388080858108</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.1564631644700272</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.3267829282900704</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9144685348215887</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.004959296964752193</v>
+      </c>
+      <c r="G99">
+        <v>0.0213205626966803</v>
+      </c>
+      <c r="H99">
+        <v>0.06806849798719948</v>
+      </c>
+      <c r="I99">
+        <v>-0.04258962176629634</v>
+      </c>
+      <c r="J99">
+        <v>0.01961135181905848</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.002386691867030288</v>
+        <v>0.01981976162213079</v>
       </c>
       <c r="C101">
-        <v>-0.07524073417221348</v>
+        <v>0.07883480405655005</v>
       </c>
       <c r="D101">
-        <v>-0.0558332834068614</v>
+        <v>0.03395875601089608</v>
       </c>
       <c r="E101">
-        <v>0.02011177149885564</v>
+        <v>-0.03202739309917282</v>
       </c>
       <c r="F101">
-        <v>-0.04629339158769125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03778182310425748</v>
+      </c>
+      <c r="G101">
+        <v>-0.02278813960971033</v>
+      </c>
+      <c r="H101">
+        <v>-0.06726562613563175</v>
+      </c>
+      <c r="I101">
+        <v>0.147748789961919</v>
+      </c>
+      <c r="J101">
+        <v>0.2507939346326803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.001856993610045982</v>
+        <v>0.001040458438453593</v>
       </c>
       <c r="C102">
-        <v>-0.003092765536011976</v>
+        <v>0.00107330997874395</v>
       </c>
       <c r="D102">
-        <v>-0.003288583421311369</v>
+        <v>-0.0007766059872445961</v>
       </c>
       <c r="E102">
-        <v>0.004113751080213491</v>
+        <v>-0.0005525952228065913</v>
       </c>
       <c r="F102">
-        <v>-0.008983458314319124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.004921748377995858</v>
+      </c>
+      <c r="G102">
+        <v>0.001084301828760932</v>
+      </c>
+      <c r="H102">
+        <v>-0.001478282292451029</v>
+      </c>
+      <c r="I102">
+        <v>0.002220574190955852</v>
+      </c>
+      <c r="J102">
+        <v>0.003496979099972005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
